--- a/NEX2018_08/Project/Data/experimental_data_raw.xlsx
+++ b/NEX2018_08/Project/Data/experimental_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belov\OneDrive - Merck Sharp &amp; Dohme, Corp\Documents\git-repositories\NEX\NEX2018_08\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E01FE68B-28D3-4D51-BE0C-AB6404401AED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67D61364-BD45-410C-BCB1-5393E5F818EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4F67C8B8-6913-4385-AB8B-C5BD7238E483}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F50E29-73F4-4137-BBBA-96DF4F844F9B}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,6 +1898,374 @@
       </c>
       <c r="G65">
         <v>650</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>-1</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
+      </c>
+      <c r="F66">
+        <v>-1</v>
+      </c>
+      <c r="G66">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>-1</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>-1</v>
+      </c>
+      <c r="F68">
+        <v>-1</v>
+      </c>
+      <c r="G68">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>-1</v>
+      </c>
+      <c r="G69">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>-1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>-1</v>
+      </c>
+      <c r="G70">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>-1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>-1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>-1</v>
+      </c>
+      <c r="D74">
+        <v>-1</v>
+      </c>
+      <c r="E74">
+        <v>-1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>-1</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>-1</v>
+      </c>
+      <c r="G75">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>-1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>-1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>-1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>-1</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79">
+        <v>-1</v>
+      </c>
+      <c r="G79">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>-1</v>
+      </c>
+      <c r="G80">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>-1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>-1</v>
+      </c>
+      <c r="G81">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2281,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D4709E-42DA-4F09-BACE-E85483AAB82C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D699992-4B4E-487D-A12C-1F79C826B7D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/NEX2018_08/Project/Data/experimental_data_raw.xlsx
+++ b/NEX2018_08/Project/Data/experimental_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belov\OneDrive - Merck Sharp &amp; Dohme, Corp\Documents\git-repositories\NEX\NEX2018_08\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67D61364-BD45-410C-BCB1-5393E5F818EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E1DA928-D7BE-45FF-9C35-95F99BEC3A38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4F67C8B8-6913-4385-AB8B-C5BD7238E483}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>filling</t>
   </si>
   <si>
-    <t>sight</t>
+    <t>measurement</t>
   </si>
   <si>
-    <t>position</t>
+    <t>vision</t>
   </si>
   <si>
-    <t>measurement</t>
+    <t>stance</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F50E29-73F4-4137-BBBA-96DF4F844F9B}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D699992-4B4E-487D-A12C-1F79C826B7D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3EF406-04ED-4478-9A81-33D7675B10EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
